--- a/Drug Response Example/Table Results.xlsx
+++ b/Drug Response Example/Table Results.xlsx
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.9531568228105907</v>
+        <v>0.9470468431771895</v>
       </c>
       <c r="C2">
         <v>0.955193482688391</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.9531568228105907</v>
+        <v>0.9511201629327902</v>
       </c>
       <c r="C3">
         <v>0.9511201629327902</v>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.955193482688391</v>
+        <v>0.9490835030549898</v>
       </c>
       <c r="C4">
         <v>0.9613034623217923</v>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.9470468431771895</v>
+        <v>0.9389002036659878</v>
       </c>
       <c r="C6">
         <v>0.9572301425661914</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.9511201629327902</v>
+        <v>0.9348268839103869</v>
       </c>
       <c r="C7">
         <v>0.9409368635437881</v>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.9470468431771895</v>
+        <v>0.9389002036659878</v>
       </c>
       <c r="C8">
         <v>0.9592668024439919</v>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.945010183299389</v>
+        <v>0.9409368635437881</v>
       </c>
       <c r="C9">
         <v>0.9511201629327902</v>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>2.203910478902738</v>
+        <v>2.123000020517936</v>
       </c>
       <c r="C2">
         <v>2.64158094624584</v>
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.680144495757047</v>
+        <v>1.641947610987446</v>
       </c>
       <c r="C3">
         <v>1.80912531829283</v>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>2.753201644086932</v>
+        <v>2.667811123992451</v>
       </c>
       <c r="C4">
         <v>2.924878716676697</v>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>2.018070776386782</v>
+        <v>1.950859798890857</v>
       </c>
       <c r="C5">
         <v>2.067236760868014</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>3.87336073504813</v>
+        <v>3.715160218596262</v>
       </c>
       <c r="C6">
         <v>4.069800761842595</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>4.269566090975292</v>
+        <v>4.0008735857824</v>
       </c>
       <c r="C7">
         <v>4.553148436763835</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>2.860752528135146</v>
+        <v>2.753209984805281</v>
       </c>
       <c r="C8">
         <v>3.267395649480876</v>
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.983730913317787</v>
+        <v>1.908936767886042</v>
       </c>
       <c r="C9">
         <v>2.104218013596445</v>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.02911549605771641</v>
+        <v>0.02924193365366062</v>
       </c>
       <c r="C2">
         <v>0.345494963691919</v>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0266765049506684</v>
+        <v>0.02456057715364874</v>
       </c>
       <c r="C3">
         <v>0.268004714504007</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.03982011795503176</v>
+        <v>0.0384974081178219</v>
       </c>
       <c r="C4">
         <v>0.2455512208431865</v>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.05016110444653227</v>
+        <v>0.04797174927402382</v>
       </c>
       <c r="C5">
         <v>0.1845118435701353</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.05051931239404501</v>
+        <v>0.04805019009580545</v>
       </c>
       <c r="C6">
         <v>0.2916261894869356</v>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.04166080469661948</v>
+        <v>0.04433834361678993</v>
       </c>
       <c r="C7">
         <v>0.2990738743106354</v>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.02894152618492181</v>
+        <v>0.02949682748874717</v>
       </c>
       <c r="C8">
         <v>0.31988896683413</v>
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.04318134541853594</v>
+        <v>0.04439706905452896</v>
       </c>
       <c r="C9">
         <v>0.1914512403149904</v>

--- a/Drug Response Example/Table Results.xlsx
+++ b/Drug Response Example/Table Results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/mclaina_mailbox_sc_edu/Documents/Research/Imaging/PROBE/Programs/PROBE/Drug Response Example/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_3754E933A4C3C879D17D94234B77AC7E0A4B1550" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914F8AE1-1C09-9348-96DF-47699BE56E5B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-27140" yWindow="7720" windowWidth="19360" windowHeight="12400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPSE" sheetId="1" r:id="rId1"/>
@@ -15,13 +21,94 @@
     <sheet name="PI Length" sheetId="6" r:id="rId6"/>
     <sheet name="SD PI Length" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="21">
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>PROBE</t>
+  </si>
+  <si>
+    <t>MCP</t>
+  </si>
+  <si>
+    <t>SCAD</t>
+  </si>
+  <si>
+    <t>LASSO</t>
+  </si>
+  <si>
+    <t>ALASSO</t>
+  </si>
+  <si>
+    <t>EBREG</t>
+  </si>
+  <si>
+    <t>VARBVS</t>
+  </si>
+  <si>
+    <t>SSLASSO</t>
+  </si>
+  <si>
+    <t>SPARSEVB</t>
+  </si>
+  <si>
+    <t>PROBE_one</t>
+  </si>
+  <si>
+    <t>Lapatinib_ActArea</t>
+  </si>
+  <si>
+    <t>Nutlin.3_ActArea</t>
+  </si>
+  <si>
+    <t>AZD0530_ActArea</t>
+  </si>
+  <si>
+    <t>PF2341066_ActArea</t>
+  </si>
+  <si>
+    <t>Topotecan_ActArea</t>
+  </si>
+  <si>
+    <t>PD.0325901_ActArea</t>
+  </si>
+  <si>
+    <t>TAE684_ActArea</t>
+  </si>
+  <si>
+    <t>TKI258_ActArea</t>
+  </si>
+  <si>
+    <t>Conform.Split</t>
+  </si>
+  <si>
+    <t>Conform.Jackknife</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,17 +145,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -115,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,9 +243,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,6 +295,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,261 +488,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PROBE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MCP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SCAD</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LASSO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ALASSO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EBREG</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>VARBVS</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SSLASSO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SPARSEVB</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lapatinib_ActArea</t>
-        </is>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.3333182612481866</v>
+        <v>0.33207827948440621</v>
       </c>
       <c r="C2">
-        <v>0.3227934963767358</v>
+        <v>0.32279349637673582</v>
       </c>
       <c r="D2">
-        <v>0.3166674258222945</v>
+        <v>0.31666742582229451</v>
       </c>
       <c r="E2">
-        <v>0.3265033172584995</v>
+        <v>0.32650331725849951</v>
       </c>
       <c r="F2">
-        <v>0.4661624505681954</v>
+        <v>0.46616245056819539</v>
       </c>
       <c r="G2">
-        <v>0.3239740269875425</v>
+        <v>0.32397402698754252</v>
       </c>
       <c r="H2">
         <v>0.3495374173837163</v>
       </c>
       <c r="I2">
-        <v>0.3405192657075999</v>
+        <v>0.34051926570759988</v>
       </c>
       <c r="J2">
-        <v>0.7325153089534971</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nutlin.3_ActArea</t>
-        </is>
+        <v>0.73251530895349715</v>
+      </c>
+      <c r="K2">
+        <v>0.41146408046873911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.1993864639304171</v>
+        <v>0.1995075161108</v>
       </c>
       <c r="C3">
         <v>0.2071564173828484</v>
       </c>
       <c r="D3">
-        <v>0.2069801075349839</v>
+        <v>0.20698010753498389</v>
       </c>
       <c r="E3">
-        <v>0.2071005912170125</v>
+        <v>0.20710059121701249</v>
       </c>
       <c r="F3">
-        <v>0.2675234036543835</v>
+        <v>0.26752340365438348</v>
       </c>
       <c r="G3">
-        <v>0.2094602946276446</v>
+        <v>0.20946029462764459</v>
       </c>
       <c r="H3">
         <v>0.2202686503044142</v>
       </c>
       <c r="I3">
-        <v>0.2155057876107024</v>
+        <v>0.21550578761070241</v>
       </c>
       <c r="J3">
-        <v>0.484055671393839</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AZD0530_ActArea</t>
-        </is>
+        <v>0.48405567139383898</v>
+      </c>
+      <c r="K3">
+        <v>0.29101844550920958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.5316097443601447</v>
+        <v>0.53041317506189212</v>
       </c>
       <c r="C4">
-        <v>0.5555939300966587</v>
+        <v>0.55559393009665869</v>
       </c>
       <c r="D4">
-        <v>0.547624320715059</v>
+        <v>0.54762432071505895</v>
       </c>
       <c r="E4">
-        <v>0.5488837333618312</v>
+        <v>0.54888373336183116</v>
       </c>
       <c r="F4">
-        <v>0.8079920676256455</v>
+        <v>0.80799206762564546</v>
       </c>
       <c r="G4">
-        <v>0.5778058910343966</v>
+        <v>0.57780589103439661</v>
       </c>
       <c r="H4">
         <v>0.5950999077484086</v>
       </c>
       <c r="I4">
-        <v>0.591562429728909</v>
+        <v>0.59156242972890904</v>
       </c>
       <c r="J4">
-        <v>2.443839310142785</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PF2341066_ActArea</t>
-        </is>
+        <v>2.4438393101427849</v>
+      </c>
+      <c r="K4">
+        <v>0.69211399208568136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.2904221849791541</v>
+        <v>0.28927806305751269</v>
       </c>
       <c r="C5">
-        <v>0.3511608675915228</v>
+        <v>0.35116086759152282</v>
       </c>
       <c r="D5">
-        <v>0.3323088462489442</v>
+        <v>0.33230884624894419</v>
       </c>
       <c r="E5">
-        <v>0.3202994300500178</v>
+        <v>0.32029943005001782</v>
       </c>
       <c r="F5">
-        <v>0.3884904685356302</v>
+        <v>0.38849046853563018</v>
       </c>
       <c r="G5">
-        <v>0.3067927911657164</v>
+        <v>0.30679279116571639</v>
       </c>
       <c r="H5">
-        <v>0.3948570023517676</v>
+        <v>0.39485700235176763</v>
       </c>
       <c r="I5">
-        <v>0.3990284570238911</v>
+        <v>0.39902845702389111</v>
       </c>
       <c r="J5">
-        <v>1.708064144811478</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Topotecan_ActArea</t>
-        </is>
+        <v>1.7080641448114779</v>
+      </c>
+      <c r="K5">
+        <v>0.41972450818269641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>1.001592016251967</v>
+        <v>0.99563020222452914</v>
       </c>
       <c r="C6">
-        <v>0.9518488879431503</v>
+        <v>0.95184888794315026</v>
       </c>
       <c r="D6">
-        <v>0.8915253605492771</v>
+        <v>0.89152536054927711</v>
       </c>
       <c r="E6">
-        <v>0.904104657990225</v>
+        <v>0.90410465799022499</v>
       </c>
       <c r="F6">
         <v>1.177603594667844</v>
       </c>
       <c r="G6">
-        <v>0.9824695098823799</v>
+        <v>0.98246950988237991</v>
       </c>
       <c r="H6">
-        <v>0.9398002838012938</v>
+        <v>0.93980028380129377</v>
       </c>
       <c r="I6">
-        <v>1.103712462165973</v>
+        <v>1.1037124621659731</v>
       </c>
       <c r="J6">
         <v>1.245193648765563</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PD.0325901_ActArea</t>
-        </is>
+      <c r="K6">
+        <v>1.0781181422330459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>1.209385142395614</v>
+        <v>1.204603041938729</v>
       </c>
       <c r="C7">
-        <v>1.235666652907829</v>
+        <v>1.2356666529078291</v>
       </c>
       <c r="D7">
         <v>1.26298889025181</v>
       </c>
       <c r="E7">
-        <v>1.207653681091322</v>
+        <v>1.2076536810913221</v>
       </c>
       <c r="F7">
         <v>1.621313618142733</v>
       </c>
       <c r="G7">
-        <v>1.495382206499558</v>
+        <v>1.4953822064995581</v>
       </c>
       <c r="H7">
-        <v>1.392824161913571</v>
+        <v>1.3928241619135711</v>
       </c>
       <c r="I7">
         <v>1.537323450517144</v>
@@ -618,73 +736,78 @@
       <c r="J7">
         <v>10.71922413717674</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TAE684_ActArea</t>
-        </is>
+      <c r="K7">
+        <v>1.45546849208035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.5711052794333344</v>
+        <v>0.56660155322808514</v>
       </c>
       <c r="C8">
-        <v>0.5649219946116782</v>
+        <v>0.56492199461167825</v>
       </c>
       <c r="D8">
-        <v>0.5693159984878127</v>
+        <v>0.56931599848781267</v>
       </c>
       <c r="E8">
-        <v>0.5644504207060291</v>
+        <v>0.56445042070602913</v>
       </c>
       <c r="F8">
-        <v>0.8920553981627257</v>
+        <v>0.89205539816272572</v>
       </c>
       <c r="G8">
-        <v>0.6328564505090776</v>
+        <v>0.63285645050907757</v>
       </c>
       <c r="H8">
-        <v>0.6473624529038766</v>
+        <v>0.64736245290387662</v>
       </c>
       <c r="I8">
-        <v>0.639785920313367</v>
+        <v>0.63978592031336701</v>
       </c>
       <c r="J8">
-        <v>6.997897173515057</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TKI258_ActArea</t>
-        </is>
+        <v>6.9978971735150566</v>
+      </c>
+      <c r="K8">
+        <v>0.70158928075005578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.2797029876456906</v>
+        <v>0.27872419738826271</v>
       </c>
       <c r="C9">
-        <v>0.3396500813820735</v>
+        <v>0.33965008138207348</v>
       </c>
       <c r="D9">
-        <v>0.3158658325694517</v>
+        <v>0.31586583256945172</v>
       </c>
       <c r="E9">
-        <v>0.2991086485011064</v>
+        <v>0.29910864850110641</v>
       </c>
       <c r="F9">
-        <v>0.3752910286475004</v>
+        <v>0.37529102864750041</v>
       </c>
       <c r="G9">
-        <v>0.3358580048286152</v>
+        <v>0.33585800482861522</v>
       </c>
       <c r="H9">
-        <v>0.3833048380683489</v>
+        <v>0.38330483806834892</v>
       </c>
       <c r="I9">
-        <v>0.3708689815214571</v>
+        <v>0.37086898152145709</v>
       </c>
       <c r="J9">
         <v>1.913167258597944</v>
+      </c>
+      <c r="K9">
+        <v>0.4934204767943447</v>
       </c>
     </row>
   </sheetData>
@@ -693,193 +816,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PROBE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MCP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SCAD</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LASSO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ALASSO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EBREG</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>VARBVS</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SSLASSO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SPARSEVB</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lapatinib_ActArea</t>
-        </is>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.07591962403499088</v>
+        <v>7.5429446768749034E-2</v>
       </c>
       <c r="C2">
-        <v>0.09950992578709997</v>
+        <v>9.9509925787099968E-2</v>
       </c>
       <c r="D2">
-        <v>0.09928024606888319</v>
+        <v>9.9280246068883193E-2</v>
       </c>
       <c r="E2">
-        <v>0.08323676361598774</v>
+        <v>8.3236763615987738E-2</v>
       </c>
       <c r="F2">
-        <v>0.1344716213831638</v>
+        <v>0.13447162138316379</v>
       </c>
       <c r="G2">
-        <v>0.1002181021513956</v>
+        <v>0.10021810215139559</v>
       </c>
       <c r="H2">
-        <v>0.08851156128477172</v>
+        <v>8.8511561284771723E-2</v>
       </c>
       <c r="I2">
-        <v>0.09631525138717353</v>
+        <v>9.6315251387173534E-2</v>
       </c>
       <c r="J2">
-        <v>0.19053520624787</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nutlin.3_ActArea</t>
-        </is>
+        <v>0.19053520624786999</v>
+      </c>
+      <c r="K2">
+        <v>0.13549595989480509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.05623910100545376</v>
+        <v>5.5781175686200869E-2</v>
       </c>
       <c r="C3">
-        <v>0.06082561652235866</v>
+        <v>6.0825616522358662E-2</v>
       </c>
       <c r="D3">
-        <v>0.0595321000318762</v>
+        <v>5.9532100031876201E-2</v>
       </c>
       <c r="E3">
-        <v>0.05929727673717619</v>
+        <v>5.9297276737176191E-2</v>
       </c>
       <c r="F3">
-        <v>0.05389417310949739</v>
+        <v>5.3894173109497387E-2</v>
       </c>
       <c r="G3">
-        <v>0.06152289819206364</v>
+        <v>6.1522898192063642E-2</v>
       </c>
       <c r="H3">
-        <v>0.06639397377289813</v>
+        <v>6.6393973772898129E-2</v>
       </c>
       <c r="I3">
-        <v>0.06776269377136573</v>
+        <v>6.7762693771365734E-2</v>
       </c>
       <c r="J3">
         <v>0.1948505565330752</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AZD0530_ActArea</t>
-        </is>
+      <c r="K3">
+        <v>0.1044434298647292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1498697575051616</v>
+        <v>0.14649732521886141</v>
       </c>
       <c r="C4">
         <v>0.1615389068074104</v>
       </c>
       <c r="D4">
-        <v>0.1479197131257564</v>
+        <v>0.14791971312575641</v>
       </c>
       <c r="E4">
         <v>0.1478315214537603</v>
       </c>
       <c r="F4">
-        <v>0.1873775084420478</v>
+        <v>0.18737750844204781</v>
       </c>
       <c r="G4">
-        <v>0.1670428843447085</v>
+        <v>0.16704288434470849</v>
       </c>
       <c r="H4">
-        <v>0.170823911547159</v>
+        <v>0.17082391154715901</v>
       </c>
       <c r="I4">
         <v>0.1822645206679572</v>
       </c>
       <c r="J4">
-        <v>2.326049743419896</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PF2341066_ActArea</t>
-        </is>
+        <v>2.3260497434198961</v>
+      </c>
+      <c r="K4">
+        <v>0.18167367391359321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.1414769358309487</v>
+        <v>0.1384993373883085</v>
       </c>
       <c r="C5">
-        <v>0.2084351930280353</v>
+        <v>0.20843519302803529</v>
       </c>
       <c r="D5">
-        <v>0.2125723216400811</v>
+        <v>0.21257232164008111</v>
       </c>
       <c r="E5">
-        <v>0.1696254966807781</v>
+        <v>0.16962549668077809</v>
       </c>
       <c r="F5">
-        <v>0.1466068942905586</v>
+        <v>0.14660689429055859</v>
       </c>
       <c r="G5">
         <v>0.1673398826381419</v>
       </c>
       <c r="H5">
-        <v>0.2375100477537297</v>
+        <v>0.23751004775372969</v>
       </c>
       <c r="I5">
         <v>0.203477754656054</v>
@@ -887,58 +994,60 @@
       <c r="J5">
         <v>1.514098978075858</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Topotecan_ActArea</t>
-        </is>
+      <c r="K5">
+        <v>0.24147208206417581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.2328855672579494</v>
+        <v>0.2284173648345299</v>
       </c>
       <c r="C6">
-        <v>0.1707130365794277</v>
+        <v>0.17071303657942771</v>
       </c>
       <c r="D6">
         <v>0.1650221732546574</v>
       </c>
       <c r="E6">
-        <v>0.172259019770837</v>
+        <v>0.17225901977083699</v>
       </c>
       <c r="F6">
-        <v>0.2207492976121284</v>
+        <v>0.22074929761212839</v>
       </c>
       <c r="G6">
         <v>0.1784035128127282</v>
       </c>
       <c r="H6">
-        <v>0.2226152530212337</v>
+        <v>0.22261525302123369</v>
       </c>
       <c r="I6">
-        <v>0.210812175610308</v>
+        <v>0.21081217561030799</v>
       </c>
       <c r="J6">
-        <v>0.7988204064078467</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PD.0325901_ActArea</t>
-        </is>
+        <v>0.79882040640784668</v>
+      </c>
+      <c r="K6">
+        <v>0.23425392134701351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.1944898159466533</v>
+        <v>0.1957168790310759</v>
       </c>
       <c r="C7">
-        <v>0.244569411366537</v>
+        <v>0.24456941136653701</v>
       </c>
       <c r="D7">
         <v>0.2200379702386514</v>
       </c>
       <c r="E7">
-        <v>0.169668800027048</v>
+        <v>0.16966880002704801</v>
       </c>
       <c r="F7">
         <v>0.3617329992495445</v>
@@ -947,29 +1056,30 @@
         <v>0.2351328273747465</v>
       </c>
       <c r="H7">
-        <v>0.2130922561757222</v>
+        <v>0.21309225617572219</v>
       </c>
       <c r="I7">
-        <v>0.4351271457017004</v>
+        <v>0.43512714570170041</v>
       </c>
       <c r="J7">
-        <v>5.877018599678118</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TAE684_ActArea</t>
-        </is>
+        <v>5.8770185996781183</v>
+      </c>
+      <c r="K7">
+        <v>0.22181932211580169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.1211284953826636</v>
+        <v>0.1197049253488062</v>
       </c>
       <c r="C8">
         <v>0.1121199260023976</v>
       </c>
       <c r="D8">
-        <v>0.1167938521126975</v>
+        <v>0.11679385211269749</v>
       </c>
       <c r="E8">
         <v>0.1122635792475236</v>
@@ -978,50 +1088,54 @@
         <v>0.1219268159570195</v>
       </c>
       <c r="G8">
-        <v>0.1366959175285544</v>
+        <v>0.13669591752855439</v>
       </c>
       <c r="H8">
-        <v>0.1685348909126141</v>
+        <v>0.16853489091261409</v>
       </c>
       <c r="I8">
-        <v>0.1153792037558442</v>
+        <v>0.11537920375584421</v>
       </c>
       <c r="J8">
-        <v>5.229133723842783</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TKI258_ActArea</t>
-        </is>
+        <v>5.2291337238427831</v>
+      </c>
+      <c r="K8">
+        <v>0.20518059185672419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.1112387838610033</v>
+        <v>0.11277235096367801</v>
       </c>
       <c r="C9">
-        <v>0.1224268398637672</v>
+        <v>0.12242683986376721</v>
       </c>
       <c r="D9">
-        <v>0.13252295359323</v>
+        <v>0.13252295359322999</v>
       </c>
       <c r="E9">
         <v>0.1120847557010875</v>
       </c>
       <c r="F9">
-        <v>0.1420440547929024</v>
+        <v>0.14204405479290241</v>
       </c>
       <c r="G9">
         <v>0.1173998147843853</v>
       </c>
       <c r="H9">
-        <v>0.1543517475037897</v>
+        <v>0.15435174750378969</v>
       </c>
       <c r="I9">
-        <v>0.1313118279581375</v>
+        <v>0.13131182795813751</v>
       </c>
       <c r="J9">
-        <v>2.413756543060683</v>
+        <v>2.4137565430606829</v>
+      </c>
+      <c r="K9">
+        <v>0.26092619535698219</v>
       </c>
     </row>
   </sheetData>
@@ -1030,258 +1144,266 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PROBE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MCP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SCAD</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LASSO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ALASSO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EBREG</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>VARBVS</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SSLASSO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SPARSEVB</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lapatinib_ActArea</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>0.3259278764550211</v>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.33044897831729148</v>
       </c>
       <c r="C2">
-        <v>0.3375580217522254</v>
+        <v>0.33755802175222538</v>
       </c>
       <c r="D2">
-        <v>0.346751575662734</v>
+        <v>0.34675157566273401</v>
       </c>
       <c r="E2">
-        <v>0.3370840116474947</v>
+        <v>0.33708401164749469</v>
       </c>
       <c r="F2">
-        <v>0.4244700299894761</v>
+        <v>0.42447002998947608</v>
       </c>
       <c r="G2">
-        <v>0.3390752295827943</v>
+        <v>0.33907522958279429</v>
       </c>
       <c r="H2">
         <v>0.3570587978510783</v>
       </c>
       <c r="I2">
-        <v>0.3604022606302151</v>
+        <v>0.36040226063021508</v>
       </c>
       <c r="J2">
-        <v>0.5424670029590478</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nutlin.3_ActArea</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>0.2779561588996499</v>
+        <v>0.54246700295904782</v>
+      </c>
+      <c r="K2">
+        <v>0.36939096034389168</v>
+      </c>
+      <c r="L2">
+        <f>MIN(B2:K2)</f>
+        <v>0.33044897831729148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.27666678399111599</v>
       </c>
       <c r="C3">
-        <v>0.289899902711605</v>
+        <v>0.28989990271160498</v>
       </c>
       <c r="D3">
         <v>0.286885209729629</v>
       </c>
       <c r="E3">
-        <v>0.2846905820472633</v>
+        <v>0.28469058204726327</v>
       </c>
       <c r="F3">
-        <v>0.3012392443689657</v>
+        <v>0.30123924436896571</v>
       </c>
       <c r="G3">
-        <v>0.283302233520788</v>
+        <v>0.28330223352078798</v>
       </c>
       <c r="H3">
-        <v>0.2879114739813393</v>
+        <v>0.28791147398133932</v>
       </c>
       <c r="I3">
         <v>0.292098613122172</v>
       </c>
       <c r="J3">
-        <v>0.4203485475772601</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AZD0530_ActArea</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>0.5264661282345282</v>
+        <v>0.42034854757726009</v>
+      </c>
+      <c r="K3">
+        <v>0.31983084491552821</v>
+      </c>
+      <c r="L3">
+        <f>MIN(B3:K3)</f>
+        <v>0.27666678399111599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.50968644186549694</v>
       </c>
       <c r="C4">
-        <v>0.5129197420429519</v>
+        <v>0.51291974204295188</v>
       </c>
       <c r="D4">
-        <v>0.5159772161597236</v>
+        <v>0.51597721615972358</v>
       </c>
       <c r="E4">
-        <v>0.5191778391393803</v>
+        <v>0.51917783913938031</v>
       </c>
       <c r="F4">
-        <v>0.5465064277938044</v>
+        <v>0.54650642779380443</v>
       </c>
       <c r="G4">
         <v>0.5321868493848686</v>
       </c>
       <c r="H4">
-        <v>0.5108530864985434</v>
+        <v>0.51085308649854344</v>
       </c>
       <c r="I4">
-        <v>0.5443646538461538</v>
+        <v>0.54436465384615385</v>
       </c>
       <c r="J4">
         <v>1.069369243173196</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PF2341066_ActArea</t>
-        </is>
+      <c r="K4">
+        <v>0.51108629540081529</v>
+      </c>
+      <c r="L4">
+        <f>MIN(B4:K4)</f>
+        <v>0.50968644186549694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.2754806697149516</v>
+        <v>0.28279665447803831</v>
       </c>
       <c r="C5">
-        <v>0.3085718647457961</v>
+        <v>0.30857186474579612</v>
       </c>
       <c r="D5">
-        <v>0.2816929995008874</v>
-      </c>
-      <c r="E5">
-        <v>0.2750554425193131</v>
+        <v>0.28169299950088739</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.27505544251931308</v>
       </c>
       <c r="F5">
         <v>0.372443421895712</v>
       </c>
       <c r="G5">
-        <v>0.2986279198827406</v>
+        <v>0.29862791988274062</v>
       </c>
       <c r="H5">
-        <v>0.3097928955615136</v>
+        <v>0.30979289556151363</v>
       </c>
       <c r="I5">
-        <v>0.3193870904977376</v>
+        <v>0.31938709049773761</v>
       </c>
       <c r="J5">
-        <v>0.9390861675670502</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Topotecan_ActArea</t>
-        </is>
+        <v>0.93908616756705021</v>
+      </c>
+      <c r="K5">
+        <v>0.33342492238465771</v>
+      </c>
+      <c r="L5">
+        <f>MIN(B5:K5)</f>
+        <v>0.27505544251931308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.6690942537765734</v>
+        <v>0.67236781078618879</v>
       </c>
       <c r="C6">
-        <v>0.6858303351389226</v>
+        <v>0.68583033513892255</v>
       </c>
       <c r="D6">
-        <v>0.6506933865850639</v>
-      </c>
-      <c r="E6">
-        <v>0.6224706790344574</v>
+        <v>0.65069338658506393</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.62247067903445741</v>
       </c>
       <c r="F6">
-        <v>0.6950426679677553</v>
+        <v>0.69504266796775527</v>
       </c>
       <c r="G6">
-        <v>0.6752311789927941</v>
+        <v>0.67523117899279406</v>
       </c>
       <c r="H6">
-        <v>0.6549325735135496</v>
+        <v>0.65493257351354961</v>
       </c>
       <c r="I6">
-        <v>0.6736255627679535</v>
+        <v>0.67362556276795349</v>
       </c>
       <c r="J6">
-        <v>0.7131298099731134</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PD.0325901_ActArea</t>
-        </is>
+        <v>0.71312980997311337</v>
+      </c>
+      <c r="K6">
+        <v>0.71594657044399423</v>
+      </c>
+      <c r="L6">
+        <f>MIN(B6:K6)</f>
+        <v>0.62247067903445741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.7067762016549946</v>
+        <v>0.70710945996040442</v>
       </c>
       <c r="C7">
-        <v>0.7190235416235026</v>
+        <v>0.71902354162350257</v>
       </c>
       <c r="D7">
-        <v>0.7251773496350293</v>
-      </c>
-      <c r="E7">
-        <v>0.6645713403507829</v>
+        <v>0.72517734963502933</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.66457134035078291</v>
       </c>
       <c r="F7">
-        <v>0.8172457147464707</v>
+        <v>0.81724571474647068</v>
       </c>
       <c r="G7">
-        <v>0.828270395682134</v>
+        <v>0.82827039568213401</v>
       </c>
       <c r="H7">
         <v>0.7539226708146618</v>
@@ -1292,73 +1414,90 @@
       <c r="J7">
         <v>2.894556490763974</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TAE684_ActArea</t>
-        </is>
+      <c r="K7">
+        <v>0.83334356510454666</v>
+      </c>
+      <c r="L7">
+        <f>MIN(B7:K7)</f>
+        <v>0.66457134035078291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.4936870240825936</v>
+        <v>0.49698768690506973</v>
       </c>
       <c r="C8">
-        <v>0.4821401614852965</v>
+        <v>0.48214016148529648</v>
       </c>
       <c r="D8">
-        <v>0.4884492451881088</v>
+        <v>0.48844924518810878</v>
       </c>
       <c r="E8">
         <v>0.4868833139194787</v>
       </c>
       <c r="F8">
-        <v>0.6117446986623898</v>
+        <v>0.61174469866238979</v>
       </c>
       <c r="G8">
-        <v>0.5170343207760804</v>
-      </c>
-      <c r="H8">
-        <v>0.4787824103595721</v>
+        <v>0.51703432077608036</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.47878241035957209</v>
       </c>
       <c r="I8">
-        <v>0.5310296074578083</v>
+        <v>0.53102960745780825</v>
       </c>
       <c r="J8">
-        <v>2.26151134106697</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TKI258_ActArea</t>
-        </is>
+        <v>2.2615113410669698</v>
+      </c>
+      <c r="K8">
+        <v>0.4952622691000601</v>
+      </c>
+      <c r="L8">
+        <f>MIN(B8:K8)</f>
+        <v>0.47878241035957209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.343066785351218</v>
+        <v>0.33658760072481891</v>
       </c>
       <c r="C9">
-        <v>0.3503262651446283</v>
-      </c>
-      <c r="D9">
-        <v>0.3344926670285214</v>
+        <v>0.35032626514462828</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.33449266702852137</v>
       </c>
       <c r="E9">
-        <v>0.3425290277579174</v>
+        <v>0.34252902775791738</v>
       </c>
       <c r="F9">
-        <v>0.3718798361748437</v>
+        <v>0.37187983617484371</v>
       </c>
       <c r="G9">
-        <v>0.3569542395624855</v>
+        <v>0.35695423956248551</v>
       </c>
       <c r="H9">
         <v>0.3483203797961909</v>
       </c>
       <c r="I9">
-        <v>0.3836197987894936</v>
+        <v>0.38361979878949359</v>
       </c>
       <c r="J9">
-        <v>0.853417217280743</v>
+        <v>0.85341721728074305</v>
+      </c>
+      <c r="K9">
+        <v>0.38094667936924798</v>
+      </c>
+      <c r="L9">
+        <f>MIN(B9:K9)</f>
+        <v>0.33449266702852137</v>
       </c>
     </row>
   </sheetData>
@@ -1367,224 +1506,209 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PROBE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MCP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SCAD</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LASSO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ALASSO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EBREG</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>VARBVS</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SSLASSO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SPARSEVB</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lapatinib_ActArea</t>
-        </is>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.01726178458564089</v>
+        <v>1.7702271817874451E-2</v>
       </c>
       <c r="C2">
-        <v>0.05140923507100156</v>
+        <v>5.1409235071001563E-2</v>
       </c>
       <c r="D2">
-        <v>0.05079053243539655</v>
+        <v>5.0790532435396551E-2</v>
       </c>
       <c r="E2">
-        <v>0.03592571402371324</v>
+        <v>3.5925714023713237E-2</v>
       </c>
       <c r="F2">
-        <v>0.06830722217219472</v>
+        <v>6.8307222172194718E-2</v>
       </c>
       <c r="G2">
-        <v>0.06786293233331731</v>
+        <v>6.7862932333317305E-2</v>
       </c>
       <c r="H2">
-        <v>0.05015760853706502</v>
+        <v>5.0157608537065017E-2</v>
       </c>
       <c r="I2">
-        <v>0.0594597145542465</v>
+        <v>5.94597145542465E-2</v>
       </c>
       <c r="J2">
         <v>0.1290957482594996</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nutlin.3_ActArea</t>
-        </is>
+      <c r="K2">
+        <v>7.088277219437078E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.04974405969278258</v>
+        <v>5.1395336989539873E-2</v>
       </c>
       <c r="C3">
-        <v>0.04755557721730934</v>
+        <v>4.7555577217309339E-2</v>
       </c>
       <c r="D3">
-        <v>0.04752381110989367</v>
+        <v>4.752381110989367E-2</v>
       </c>
       <c r="E3">
-        <v>0.04957266085952609</v>
+        <v>4.9572660859526087E-2</v>
       </c>
       <c r="F3">
-        <v>0.07082349816879849</v>
+        <v>7.0823498168798488E-2</v>
       </c>
       <c r="G3">
-        <v>0.04916904037319267</v>
+        <v>4.9169040373192668E-2</v>
       </c>
       <c r="H3">
-        <v>0.05167662479632363</v>
+        <v>5.1676624796323629E-2</v>
       </c>
       <c r="I3">
-        <v>0.0479847622142268</v>
+        <v>4.7984762214226803E-2</v>
       </c>
       <c r="J3">
         <v>0.1019428888864702</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AZD0530_ActArea</t>
-        </is>
+      <c r="K3">
+        <v>0.11505326150045431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.06967026720605493</v>
+        <v>7.2263120765880373E-2</v>
       </c>
       <c r="C4">
-        <v>0.09849959601398983</v>
+        <v>9.8499596013989832E-2</v>
       </c>
       <c r="D4">
-        <v>0.08572207741300479</v>
+        <v>8.5722077413004791E-2</v>
       </c>
       <c r="E4">
-        <v>0.08818052731210818</v>
+        <v>8.8180527312108181E-2</v>
       </c>
       <c r="F4">
-        <v>0.08409054127922469</v>
+        <v>8.409054127922469E-2</v>
       </c>
       <c r="G4">
-        <v>0.08072451105020428</v>
+        <v>8.0724511050204284E-2</v>
       </c>
       <c r="H4">
-        <v>0.08641125090309391</v>
+        <v>8.6411250903093914E-2</v>
       </c>
       <c r="I4">
-        <v>0.09170284445280245</v>
+        <v>9.1702844452802454E-2</v>
       </c>
       <c r="J4">
-        <v>0.6148110274377768</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PF2341066_ActArea</t>
-        </is>
+        <v>0.61481102743777682</v>
+      </c>
+      <c r="K4">
+        <v>0.12745717541159929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.06692016027893023</v>
+        <v>5.9973492176469162E-2</v>
       </c>
       <c r="C5">
-        <v>0.07518111278156014</v>
+        <v>7.5181112781560144E-2</v>
       </c>
       <c r="D5">
-        <v>0.05381433492857917</v>
+        <v>5.381433492857917E-2</v>
       </c>
       <c r="E5">
-        <v>0.05235232731608629</v>
+        <v>5.2352327316086293E-2</v>
       </c>
       <c r="F5">
-        <v>0.07565525145880297</v>
+        <v>7.5655251458802975E-2</v>
       </c>
       <c r="G5">
-        <v>0.07259445859571201</v>
+        <v>7.2594458595712008E-2</v>
       </c>
       <c r="H5">
-        <v>0.05453645421190011</v>
+        <v>5.4536454211900107E-2</v>
       </c>
       <c r="I5">
-        <v>0.07939808792940399</v>
+        <v>7.939808792940399E-2</v>
       </c>
       <c r="J5">
-        <v>0.4547398675686842</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Topotecan_ActArea</t>
-        </is>
+        <v>0.45473986756868418</v>
+      </c>
+      <c r="K5">
+        <v>4.1821106277783571E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1124152036202095</v>
+        <v>0.1106922398240327</v>
       </c>
       <c r="C6">
-        <v>0.09580660896302494</v>
+        <v>9.5806608963024939E-2</v>
       </c>
       <c r="D6">
-        <v>0.08141021298586944</v>
+        <v>8.1410212985869437E-2</v>
       </c>
       <c r="E6">
-        <v>0.112086819719812</v>
+        <v>0.11208681971981201</v>
       </c>
       <c r="F6">
-        <v>0.1510596437506714</v>
+        <v>0.15105964375067141</v>
       </c>
       <c r="G6">
-        <v>0.06980171865886196</v>
+        <v>6.9801718658861964E-2</v>
       </c>
       <c r="H6">
         <v>0.1215007633569061</v>
@@ -1593,17 +1717,18 @@
         <v>0.1128870095385516</v>
       </c>
       <c r="J6">
-        <v>0.2767475326512301</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PD.0325901_ActArea</t>
-        </is>
+        <v>0.27674753265123009</v>
+      </c>
+      <c r="K6">
+        <v>0.14386413524020561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.1104426417271679</v>
+        <v>0.11625380774927339</v>
       </c>
       <c r="C7">
         <v>0.1240647986997428</v>
@@ -1618,84 +1743,89 @@
         <v>0.1723583023860088</v>
       </c>
       <c r="G7">
-        <v>0.1493663400654076</v>
+        <v>0.14936634006540761</v>
       </c>
       <c r="H7">
-        <v>0.1094259512426178</v>
+        <v>0.10942595124261779</v>
       </c>
       <c r="I7">
-        <v>0.08300609940431163</v>
+        <v>8.3006099404311626E-2</v>
       </c>
       <c r="J7">
-        <v>1.040296737724885</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TAE684_ActArea</t>
-        </is>
+        <v>1.0402967377248851</v>
+      </c>
+      <c r="K7">
+        <v>0.1149838974255068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.10240630977857</v>
+        <v>9.9872375655293555E-2</v>
       </c>
       <c r="C8">
-        <v>0.09998169106559034</v>
+        <v>9.9981691065590336E-2</v>
       </c>
       <c r="D8">
-        <v>0.1134901665330545</v>
+        <v>0.11349016653305451</v>
       </c>
       <c r="E8">
         <v>0.1054464718087743</v>
       </c>
       <c r="F8">
-        <v>0.07259861578562893</v>
+        <v>7.2598615785628928E-2</v>
       </c>
       <c r="G8">
-        <v>0.09378051807635183</v>
+        <v>9.3780518076351835E-2</v>
       </c>
       <c r="H8">
-        <v>0.09978504190628035</v>
+        <v>9.9785041906280347E-2</v>
       </c>
       <c r="I8">
-        <v>0.1221170517403466</v>
+        <v>0.12211705174034659</v>
       </c>
       <c r="J8">
-        <v>1.05412608881583</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TKI258_ActArea</t>
-        </is>
+        <v>1.0541260888158299</v>
+      </c>
+      <c r="K8">
+        <v>7.6571810439092156E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.04188949959638925</v>
+        <v>4.2339472126167642E-2</v>
       </c>
       <c r="C9">
-        <v>0.0410194136507042</v>
+        <v>4.1019413650704203E-2</v>
       </c>
       <c r="D9">
-        <v>0.03975989677947284</v>
+        <v>3.9759896779472843E-2</v>
       </c>
       <c r="E9">
-        <v>0.03545095206681687</v>
+        <v>3.5450952066816872E-2</v>
       </c>
       <c r="F9">
-        <v>0.03606061106572792</v>
+        <v>3.6060611065727922E-2</v>
       </c>
       <c r="G9">
-        <v>0.0414092891986046</v>
+        <v>4.14092891986046E-2</v>
       </c>
       <c r="H9">
-        <v>0.03429187819311066</v>
+        <v>3.4291878193110657E-2</v>
       </c>
       <c r="I9">
-        <v>0.05925148325703298</v>
+        <v>5.9251483257032979E-2</v>
       </c>
       <c r="J9">
-        <v>0.7833404257086836</v>
+        <v>0.78334042570868356</v>
+      </c>
+      <c r="K9">
+        <v>9.5607357491685557E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1704,190 +1834,164 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PROBE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Conform.Split</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Conform.Jackknife</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EBREG</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lapatinib_ActArea</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.9470468431771895</v>
+        <v>0.95723014256619143</v>
       </c>
       <c r="C2">
-        <v>0.955193482688391</v>
+        <v>0.95519348268839099</v>
       </c>
       <c r="D2">
-        <v>0.945010183299389</v>
+        <v>0.94501018329938902</v>
       </c>
       <c r="E2">
-        <v>0.9531568228105907</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nutlin.3_ActArea</t>
-        </is>
+        <v>0.95315682281059066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.9511201629327902</v>
+        <v>0.95926680244399187</v>
       </c>
       <c r="C3">
-        <v>0.9511201629327902</v>
+        <v>0.95112016293279023</v>
       </c>
       <c r="D3">
-        <v>0.9470468431771895</v>
+        <v>0.94704684317718946</v>
       </c>
       <c r="E3">
-        <v>0.9531568228105907</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AZD0530_ActArea</t>
-        </is>
+        <v>0.95315682281059066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.9490835030549898</v>
+        <v>0.95926680244399187</v>
       </c>
       <c r="C4">
-        <v>0.9613034623217923</v>
+        <v>0.96130346232179231</v>
       </c>
       <c r="D4">
-        <v>0.9470468431771895</v>
+        <v>0.94704684317718946</v>
       </c>
       <c r="E4">
-        <v>0.9531568228105907</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PF2341066_ActArea</t>
-        </is>
+        <v>0.95315682281059066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.9409368635437881</v>
+        <v>0.95519348268839099</v>
       </c>
       <c r="C5">
-        <v>0.9409368635437881</v>
+        <v>0.94093686354378814</v>
       </c>
       <c r="D5">
-        <v>0.9409368635437881</v>
+        <v>0.94093686354378814</v>
       </c>
       <c r="E5">
-        <v>0.955193482688391</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Topotecan_ActArea</t>
-        </is>
+        <v>0.95519348268839099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.9389002036659878</v>
+        <v>0.96741344195519352</v>
       </c>
       <c r="C6">
-        <v>0.9572301425661914</v>
+        <v>0.95723014256619143</v>
       </c>
       <c r="D6">
-        <v>0.955193482688391</v>
+        <v>0.95519348268839099</v>
       </c>
       <c r="E6">
-        <v>0.9511201629327902</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PD.0325901_ActArea</t>
-        </is>
+        <v>0.95112016293279023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.9348268839103869</v>
+        <v>0.97148676171079429</v>
       </c>
       <c r="C7">
-        <v>0.9409368635437881</v>
+        <v>0.94093686354378814</v>
       </c>
       <c r="D7">
-        <v>0.945010183299389</v>
+        <v>0.94501018329938902</v>
       </c>
       <c r="E7">
-        <v>0.9429735234215886</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TAE684_ActArea</t>
-        </is>
+        <v>0.94297352342158858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.9389002036659878</v>
+        <v>0.95926680244399187</v>
       </c>
       <c r="C8">
-        <v>0.9592668024439919</v>
+        <v>0.95926680244399187</v>
       </c>
       <c r="D8">
-        <v>0.9470468431771895</v>
+        <v>0.94704684317718946</v>
       </c>
       <c r="E8">
-        <v>0.9613034623217923</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TKI258_ActArea</t>
-        </is>
+        <v>0.96130346232179231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.9409368635437881</v>
+        <v>0.96130346232179231</v>
       </c>
       <c r="C9">
-        <v>0.9511201629327902</v>
+        <v>0.95112016293279023</v>
       </c>
       <c r="D9">
-        <v>0.9470468431771895</v>
+        <v>0.94704684317718946</v>
       </c>
       <c r="E9">
-        <v>0.9633401221995926</v>
+        <v>0.96334012219959264</v>
       </c>
     </row>
   </sheetData>
@@ -1896,67 +2000,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PROBE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Conform.Split</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Conform.Jackknife</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EBREG</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lapatinib_ActArea</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>2.123000020517936</v>
+        <v>2.388576805969862</v>
       </c>
       <c r="C2">
-        <v>2.64158094624584</v>
+        <v>2.6415809462458402</v>
       </c>
       <c r="D2">
-        <v>2.252175745393938</v>
+        <v>2.2521757453939379</v>
       </c>
       <c r="E2">
-        <v>2.293804014633728</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nutlin.3_ActArea</t>
-        </is>
+        <v>2.2938040146337282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>1.641947610987446</v>
+        <v>1.781267469108661</v>
       </c>
       <c r="C3">
         <v>1.80912531829283</v>
@@ -1965,118 +2055,106 @@
         <v>1.694797030277702</v>
       </c>
       <c r="E3">
-        <v>1.840147375266545</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AZD0530_ActArea</t>
-        </is>
+        <v>1.8401473752665449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>2.667811123992451</v>
+        <v>2.961688865401737</v>
       </c>
       <c r="C4">
-        <v>2.924878716676697</v>
+        <v>2.9248787166766972</v>
       </c>
       <c r="D4">
-        <v>2.685436282421639</v>
+        <v>2.6854362824216391</v>
       </c>
       <c r="E4">
-        <v>2.985542532173238</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PF2341066_ActArea</t>
-        </is>
+        <v>2.9855425321732381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1.950859798890857</v>
+        <v>2.2023370551003092</v>
       </c>
       <c r="C5">
-        <v>2.067236760868014</v>
+        <v>2.0672367608680138</v>
       </c>
       <c r="D5">
-        <v>2.093752853769377</v>
+        <v>2.0937528537693768</v>
       </c>
       <c r="E5">
-        <v>2.273360793993945</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Topotecan_ActArea</t>
-        </is>
+        <v>2.2733607939939451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>3.715160218596262</v>
+        <v>4.2941583737565203</v>
       </c>
       <c r="C6">
-        <v>4.069800761842595</v>
+        <v>4.0698007618425951</v>
       </c>
       <c r="D6">
-        <v>3.851666410349887</v>
+        <v>3.8516664103498872</v>
       </c>
       <c r="E6">
-        <v>3.941209823349412</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PD.0325901_ActArea</t>
-        </is>
+        <v>3.9412098233494119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>4.0008735857824</v>
+        <v>4.9150591046338086</v>
       </c>
       <c r="C7">
-        <v>4.553148436763835</v>
+        <v>4.5531484367638351</v>
       </c>
       <c r="D7">
-        <v>4.383827096397973</v>
+        <v>4.3838270963979733</v>
       </c>
       <c r="E7">
-        <v>4.672436596006423</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TAE684_ActArea</t>
-        </is>
+        <v>4.6724365960064231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>2.753209984805281</v>
+        <v>3.1423151946722601</v>
       </c>
       <c r="C8">
-        <v>3.267395649480876</v>
+        <v>3.2673956494808758</v>
       </c>
       <c r="D8">
-        <v>2.939015633725001</v>
+        <v>2.9390156337250009</v>
       </c>
       <c r="E8">
         <v>3.17494564885487</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TKI258_ActArea</t>
-        </is>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>1.908936767886042</v>
+        <v>2.178625098455746</v>
       </c>
       <c r="C9">
-        <v>2.104218013596445</v>
+        <v>2.1042180135964448</v>
       </c>
       <c r="D9">
-        <v>2.027296472043923</v>
+        <v>2.0272964720439228</v>
       </c>
       <c r="E9">
         <v>2.252661555070341</v>
@@ -2088,190 +2166,164 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PROBE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Conform.Split</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Conform.Jackknife</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EBREG</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lapatinib_ActArea</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.02924193365366062</v>
+        <v>2.9053828612205339E-2</v>
       </c>
       <c r="C2">
-        <v>0.345494963691919</v>
+        <v>0.34549496369191901</v>
       </c>
       <c r="D2">
-        <v>0.0667124099489084</v>
+        <v>6.6712409948908397E-2</v>
       </c>
       <c r="E2">
-        <v>0.04069599005931675</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nutlin.3_ActArea</t>
-        </is>
+        <v>4.0695990059316747E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.02456057715364874</v>
+        <v>2.8434942253582441E-2</v>
       </c>
       <c r="C3">
-        <v>0.268004714504007</v>
+        <v>0.26800471450400698</v>
       </c>
       <c r="D3">
-        <v>0.05580845623461363</v>
+        <v>5.5808456234613633E-2</v>
       </c>
       <c r="E3">
-        <v>0.02008948174872288</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AZD0530_ActArea</t>
-        </is>
+        <v>2.0089481748722882E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.0384974081178219</v>
+        <v>4.5325532279515433E-2</v>
       </c>
       <c r="C4">
-        <v>0.2455512208431865</v>
+        <v>0.24555122084318651</v>
       </c>
       <c r="D4">
-        <v>0.1087984720096176</v>
+        <v>0.10879847200961761</v>
       </c>
       <c r="E4">
-        <v>0.05392251853980522</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PF2341066_ActArea</t>
-        </is>
+        <v>5.3922518539805217E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.04797174927402382</v>
+        <v>5.8031372789824461E-2</v>
       </c>
       <c r="C5">
-        <v>0.1845118435701353</v>
+        <v>0.18451184357013531</v>
       </c>
       <c r="D5">
-        <v>0.1147124680528367</v>
+        <v>0.11471246805283671</v>
       </c>
       <c r="E5">
-        <v>0.07611079251010101</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Topotecan_ActArea</t>
-        </is>
+        <v>7.6110792510101014E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.04805019009580545</v>
+        <v>5.196978150419599E-2</v>
       </c>
       <c r="C6">
-        <v>0.2916261894869356</v>
+        <v>0.29162618948693558</v>
       </c>
       <c r="D6">
-        <v>0.08528183627879497</v>
+        <v>8.5281836278794973E-2</v>
       </c>
       <c r="E6">
-        <v>0.09336971902436873</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PD.0325901_ActArea</t>
-        </is>
+        <v>9.3369719024368733E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.04433834361678993</v>
+        <v>3.0967271113751211E-2</v>
       </c>
       <c r="C7">
-        <v>0.2990738743106354</v>
+        <v>0.29907387431063542</v>
       </c>
       <c r="D7">
-        <v>0.1314110282055594</v>
+        <v>0.13141102820555939</v>
       </c>
       <c r="E7">
         <v>0.1720573572961954</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TAE684_ActArea</t>
-        </is>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.02949682748874717</v>
+        <v>3.1423686535001688E-2</v>
       </c>
       <c r="C8">
-        <v>0.31988896683413</v>
+        <v>0.31988896683412998</v>
       </c>
       <c r="D8">
-        <v>0.08040415723237164</v>
+        <v>8.040415723237164E-2</v>
       </c>
       <c r="E8">
-        <v>0.09978287581431414</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TKI258_ActArea</t>
-        </is>
+        <v>9.9782875814314137E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.04439706905452896</v>
+        <v>4.3587495401645103E-2</v>
       </c>
       <c r="C9">
-        <v>0.1914512403149904</v>
+        <v>0.19145124031499039</v>
       </c>
       <c r="D9">
-        <v>0.0770344763949263</v>
+        <v>7.7034476394926304E-2</v>
       </c>
       <c r="E9">
-        <v>0.0489649392303879</v>
+        <v>4.8964939230387902E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Drug Response Example/Table Results.xlsx
+++ b/Drug Response Example/Table Results.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,6 +414,11 @@
           <t>SPARSEVB</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PROBE.1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -422,7 +427,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3333182612481866</v>
+        <v>0.3320782794844062</v>
       </c>
       <c r="C2">
         <v>0.3227934963767358</v>
@@ -448,6 +453,9 @@
       <c r="J2">
         <v>0.7325153089534971</v>
       </c>
+      <c r="K2">
+        <v>0.4114640804687391</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -456,7 +464,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1993864639304171</v>
+        <v>0.1995075161108</v>
       </c>
       <c r="C3">
         <v>0.2071564173828484</v>
@@ -482,6 +490,9 @@
       <c r="J3">
         <v>0.484055671393839</v>
       </c>
+      <c r="K3">
+        <v>0.2910184455092096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -490,7 +501,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5316097443601447</v>
+        <v>0.5304131750618921</v>
       </c>
       <c r="C4">
         <v>0.5555939300966587</v>
@@ -516,6 +527,9 @@
       <c r="J4">
         <v>2.443839310142785</v>
       </c>
+      <c r="K4">
+        <v>0.6921139920856814</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -524,7 +538,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2904221849791541</v>
+        <v>0.2892780630575127</v>
       </c>
       <c r="C5">
         <v>0.3511608675915228</v>
@@ -550,6 +564,9 @@
       <c r="J5">
         <v>1.708064144811478</v>
       </c>
+      <c r="K5">
+        <v>0.4197245081826964</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -558,7 +575,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.001592016251967</v>
+        <v>0.9956302022245291</v>
       </c>
       <c r="C6">
         <v>0.9518488879431503</v>
@@ -584,6 +601,9 @@
       <c r="J6">
         <v>1.245193648765563</v>
       </c>
+      <c r="K6">
+        <v>1.078118142233046</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -592,7 +612,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.209385142395614</v>
+        <v>1.204603041938729</v>
       </c>
       <c r="C7">
         <v>1.235666652907829</v>
@@ -618,6 +638,9 @@
       <c r="J7">
         <v>10.71922413717674</v>
       </c>
+      <c r="K7">
+        <v>1.45546849208035</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -626,7 +649,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.5711052794333344</v>
+        <v>0.5666015532280851</v>
       </c>
       <c r="C8">
         <v>0.5649219946116782</v>
@@ -652,6 +675,9 @@
       <c r="J8">
         <v>6.997897173515057</v>
       </c>
+      <c r="K8">
+        <v>0.7015892807500558</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -660,7 +686,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2797029876456906</v>
+        <v>0.2787241973882627</v>
       </c>
       <c r="C9">
         <v>0.3396500813820735</v>
@@ -685,6 +711,9 @@
       </c>
       <c r="J9">
         <v>1.913167258597944</v>
+      </c>
+      <c r="K9">
+        <v>0.4934204767943447</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -751,6 +780,11 @@
           <t>SPARSEVB</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PROBE.1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -759,7 +793,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.07591962403499088</v>
+        <v>0.07542944676874903</v>
       </c>
       <c r="C2">
         <v>0.09950992578709997</v>
@@ -785,6 +819,9 @@
       <c r="J2">
         <v>0.19053520624787</v>
       </c>
+      <c r="K2">
+        <v>0.1354959598948051</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -793,7 +830,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.05623910100545376</v>
+        <v>0.05578117568620087</v>
       </c>
       <c r="C3">
         <v>0.06082561652235866</v>
@@ -819,6 +856,9 @@
       <c r="J3">
         <v>0.1948505565330752</v>
       </c>
+      <c r="K3">
+        <v>0.1044434298647292</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -827,7 +867,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1498697575051616</v>
+        <v>0.1464973252188614</v>
       </c>
       <c r="C4">
         <v>0.1615389068074104</v>
@@ -853,6 +893,9 @@
       <c r="J4">
         <v>2.326049743419896</v>
       </c>
+      <c r="K4">
+        <v>0.1816736739135932</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -861,7 +904,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.1414769358309487</v>
+        <v>0.1384993373883085</v>
       </c>
       <c r="C5">
         <v>0.2084351930280353</v>
@@ -887,6 +930,9 @@
       <c r="J5">
         <v>1.514098978075858</v>
       </c>
+      <c r="K5">
+        <v>0.2414720820641758</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -895,7 +941,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.2328855672579494</v>
+        <v>0.2284173648345299</v>
       </c>
       <c r="C6">
         <v>0.1707130365794277</v>
@@ -921,6 +967,9 @@
       <c r="J6">
         <v>0.7988204064078467</v>
       </c>
+      <c r="K6">
+        <v>0.2342539213470135</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -929,7 +978,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1944898159466533</v>
+        <v>0.1957168790310759</v>
       </c>
       <c r="C7">
         <v>0.244569411366537</v>
@@ -955,6 +1004,9 @@
       <c r="J7">
         <v>5.877018599678118</v>
       </c>
+      <c r="K7">
+        <v>0.2218193221158017</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -963,7 +1015,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1211284953826636</v>
+        <v>0.1197049253488062</v>
       </c>
       <c r="C8">
         <v>0.1121199260023976</v>
@@ -989,6 +1041,9 @@
       <c r="J8">
         <v>5.229133723842783</v>
       </c>
+      <c r="K8">
+        <v>0.2051805918567242</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -997,7 +1052,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.1112387838610033</v>
+        <v>0.112772350963678</v>
       </c>
       <c r="C9">
         <v>0.1224268398637672</v>
@@ -1022,6 +1077,9 @@
       </c>
       <c r="J9">
         <v>2.413756543060683</v>
+      </c>
+      <c r="K9">
+        <v>0.2609261953569822</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1088,6 +1146,11 @@
           <t>SPARSEVB</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PROBE.1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1096,7 +1159,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3259278764550211</v>
+        <v>0.3304489783172915</v>
       </c>
       <c r="C2">
         <v>0.3375580217522254</v>
@@ -1122,6 +1185,9 @@
       <c r="J2">
         <v>0.5424670029590478</v>
       </c>
+      <c r="K2">
+        <v>0.3693909603438917</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,7 +1196,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2779561588996499</v>
+        <v>0.276666783991116</v>
       </c>
       <c r="C3">
         <v>0.289899902711605</v>
@@ -1156,6 +1222,9 @@
       <c r="J3">
         <v>0.4203485475772601</v>
       </c>
+      <c r="K3">
+        <v>0.3198308449155282</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1164,7 +1233,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5264661282345282</v>
+        <v>0.5096864418654969</v>
       </c>
       <c r="C4">
         <v>0.5129197420429519</v>
@@ -1190,6 +1259,9 @@
       <c r="J4">
         <v>1.069369243173196</v>
       </c>
+      <c r="K4">
+        <v>0.5110862954008153</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1198,7 +1270,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2754806697149516</v>
+        <v>0.2827966544780383</v>
       </c>
       <c r="C5">
         <v>0.3085718647457961</v>
@@ -1224,6 +1296,9 @@
       <c r="J5">
         <v>0.9390861675670502</v>
       </c>
+      <c r="K5">
+        <v>0.3334249223846577</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1232,7 +1307,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.6690942537765734</v>
+        <v>0.6723678107861888</v>
       </c>
       <c r="C6">
         <v>0.6858303351389226</v>
@@ -1258,6 +1333,9 @@
       <c r="J6">
         <v>0.7131298099731134</v>
       </c>
+      <c r="K6">
+        <v>0.7159465704439942</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1266,7 +1344,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.7067762016549946</v>
+        <v>0.7071094599604044</v>
       </c>
       <c r="C7">
         <v>0.7190235416235026</v>
@@ -1292,6 +1370,9 @@
       <c r="J7">
         <v>2.894556490763974</v>
       </c>
+      <c r="K7">
+        <v>0.8333435651045467</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1300,7 +1381,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.4936870240825936</v>
+        <v>0.4969876869050697</v>
       </c>
       <c r="C8">
         <v>0.4821401614852965</v>
@@ -1326,6 +1407,9 @@
       <c r="J8">
         <v>2.26151134106697</v>
       </c>
+      <c r="K8">
+        <v>0.4952622691000601</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1334,7 +1418,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.343066785351218</v>
+        <v>0.3365876007248189</v>
       </c>
       <c r="C9">
         <v>0.3503262651446283</v>
@@ -1359,6 +1443,9 @@
       </c>
       <c r="J9">
         <v>0.853417217280743</v>
+      </c>
+      <c r="K9">
+        <v>0.380946679369248</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1425,6 +1512,11 @@
           <t>SPARSEVB</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PROBE.1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1433,7 +1525,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.01726178458564089</v>
+        <v>0.01770227181787445</v>
       </c>
       <c r="C2">
         <v>0.05140923507100156</v>
@@ -1459,6 +1551,9 @@
       <c r="J2">
         <v>0.1290957482594996</v>
       </c>
+      <c r="K2">
+        <v>0.07088277219437078</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1467,7 +1562,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.04974405969278258</v>
+        <v>0.05139533698953987</v>
       </c>
       <c r="C3">
         <v>0.04755557721730934</v>
@@ -1493,6 +1588,9 @@
       <c r="J3">
         <v>0.1019428888864702</v>
       </c>
+      <c r="K3">
+        <v>0.1150532615004543</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1501,7 +1599,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.06967026720605493</v>
+        <v>0.07226312076588037</v>
       </c>
       <c r="C4">
         <v>0.09849959601398983</v>
@@ -1527,6 +1625,9 @@
       <c r="J4">
         <v>0.6148110274377768</v>
       </c>
+      <c r="K4">
+        <v>0.1274571754115993</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1535,7 +1636,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.06692016027893023</v>
+        <v>0.05997349217646916</v>
       </c>
       <c r="C5">
         <v>0.07518111278156014</v>
@@ -1561,6 +1662,9 @@
       <c r="J5">
         <v>0.4547398675686842</v>
       </c>
+      <c r="K5">
+        <v>0.04182110627778357</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1569,7 +1673,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.1124152036202095</v>
+        <v>0.1106922398240327</v>
       </c>
       <c r="C6">
         <v>0.09580660896302494</v>
@@ -1595,6 +1699,9 @@
       <c r="J6">
         <v>0.2767475326512301</v>
       </c>
+      <c r="K6">
+        <v>0.1438641352402056</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1603,7 +1710,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1104426417271679</v>
+        <v>0.1162538077492734</v>
       </c>
       <c r="C7">
         <v>0.1240647986997428</v>
@@ -1629,6 +1736,9 @@
       <c r="J7">
         <v>1.040296737724885</v>
       </c>
+      <c r="K7">
+        <v>0.1149838974255068</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1637,7 +1747,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.10240630977857</v>
+        <v>0.09987237565529355</v>
       </c>
       <c r="C8">
         <v>0.09998169106559034</v>
@@ -1663,6 +1773,9 @@
       <c r="J8">
         <v>1.05412608881583</v>
       </c>
+      <c r="K8">
+        <v>0.07657181043909216</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1671,7 +1784,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.04188949959638925</v>
+        <v>0.04233947212616764</v>
       </c>
       <c r="C9">
         <v>0.0410194136507042</v>
@@ -1696,6 +1809,9 @@
       </c>
       <c r="J9">
         <v>0.7833404257086836</v>
+      </c>
+      <c r="K9">
+        <v>0.09560735749168556</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1861,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.9470468431771895</v>
+        <v>0.9572301425661914</v>
       </c>
       <c r="C2">
         <v>0.955193482688391</v>
@@ -1764,7 +1880,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.9511201629327902</v>
+        <v>0.9592668024439919</v>
       </c>
       <c r="C3">
         <v>0.9511201629327902</v>
@@ -1783,7 +1899,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.9490835030549898</v>
+        <v>0.9592668024439919</v>
       </c>
       <c r="C4">
         <v>0.9613034623217923</v>
@@ -1802,7 +1918,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.9409368635437881</v>
+        <v>0.955193482688391</v>
       </c>
       <c r="C5">
         <v>0.9409368635437881</v>
@@ -1821,7 +1937,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.9389002036659878</v>
+        <v>0.9674134419551935</v>
       </c>
       <c r="C6">
         <v>0.9572301425661914</v>
@@ -1840,7 +1956,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.9348268839103869</v>
+        <v>0.9714867617107943</v>
       </c>
       <c r="C7">
         <v>0.9409368635437881</v>
@@ -1859,7 +1975,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.9389002036659878</v>
+        <v>0.9592668024439919</v>
       </c>
       <c r="C8">
         <v>0.9592668024439919</v>
@@ -1878,7 +1994,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.9409368635437881</v>
+        <v>0.9613034623217923</v>
       </c>
       <c r="C9">
         <v>0.9511201629327902</v>
@@ -1937,7 +2053,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>2.123000020517936</v>
+        <v>2.388576805969862</v>
       </c>
       <c r="C2">
         <v>2.64158094624584</v>
@@ -1956,7 +2072,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.641947610987446</v>
+        <v>1.781267469108661</v>
       </c>
       <c r="C3">
         <v>1.80912531829283</v>
@@ -1975,7 +2091,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>2.667811123992451</v>
+        <v>2.961688865401737</v>
       </c>
       <c r="C4">
         <v>2.924878716676697</v>
@@ -1994,7 +2110,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.950859798890857</v>
+        <v>2.202337055100309</v>
       </c>
       <c r="C5">
         <v>2.067236760868014</v>
@@ -2013,7 +2129,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>3.715160218596262</v>
+        <v>4.29415837375652</v>
       </c>
       <c r="C6">
         <v>4.069800761842595</v>
@@ -2032,7 +2148,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>4.0008735857824</v>
+        <v>4.915059104633809</v>
       </c>
       <c r="C7">
         <v>4.553148436763835</v>
@@ -2051,7 +2167,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>2.753209984805281</v>
+        <v>3.14231519467226</v>
       </c>
       <c r="C8">
         <v>3.267395649480876</v>
@@ -2070,7 +2186,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.908936767886042</v>
+        <v>2.178625098455746</v>
       </c>
       <c r="C9">
         <v>2.104218013596445</v>
@@ -2129,7 +2245,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.02924193365366062</v>
+        <v>0.02905382861220534</v>
       </c>
       <c r="C2">
         <v>0.345494963691919</v>
@@ -2148,7 +2264,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.02456057715364874</v>
+        <v>0.02843494225358244</v>
       </c>
       <c r="C3">
         <v>0.268004714504007</v>
@@ -2167,7 +2283,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.0384974081178219</v>
+        <v>0.04532553227951543</v>
       </c>
       <c r="C4">
         <v>0.2455512208431865</v>
@@ -2186,7 +2302,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.04797174927402382</v>
+        <v>0.05803137278982446</v>
       </c>
       <c r="C5">
         <v>0.1845118435701353</v>
@@ -2205,7 +2321,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.04805019009580545</v>
+        <v>0.05196978150419599</v>
       </c>
       <c r="C6">
         <v>0.2916261894869356</v>
@@ -2224,7 +2340,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.04433834361678993</v>
+        <v>0.03096727111375121</v>
       </c>
       <c r="C7">
         <v>0.2990738743106354</v>
@@ -2243,7 +2359,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.02949682748874717</v>
+        <v>0.03142368653500169</v>
       </c>
       <c r="C8">
         <v>0.31988896683413</v>
@@ -2262,7 +2378,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.04439706905452896</v>
+        <v>0.0435874954016451</v>
       </c>
       <c r="C9">
         <v>0.1914512403149904</v>

--- a/Drug Response Example/Table Results.xlsx
+++ b/Drug Response Example/Table Results.xlsx
@@ -416,7 +416,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>PROBE.1</t>
+          <t>PROBE_one</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>PROBE.1</t>
+          <t>PROBE_one</t>
         </is>
       </c>
     </row>
@@ -793,34 +793,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.07542944676874903</v>
+        <v>0.0238528854435675</v>
       </c>
       <c r="C2">
-        <v>0.09950992578709997</v>
+        <v>0.03146780152815595</v>
       </c>
       <c r="D2">
-        <v>0.09928024606888319</v>
+        <v>0.03139517042396488</v>
       </c>
       <c r="E2">
-        <v>0.08323676361598774</v>
+        <v>0.02632177580875542</v>
       </c>
       <c r="F2">
-        <v>0.1344716213831638</v>
+        <v>0.04252366042265995</v>
       </c>
       <c r="G2">
-        <v>0.1002181021513956</v>
+        <v>0.0316917465577831</v>
       </c>
       <c r="H2">
-        <v>0.08851156128477172</v>
+        <v>0.0279898132917458</v>
       </c>
       <c r="I2">
-        <v>0.09631525138717353</v>
+        <v>0.03045755677951604</v>
       </c>
       <c r="J2">
-        <v>0.19053520624787</v>
+        <v>0.0602525226193214</v>
       </c>
       <c r="K2">
-        <v>0.1354959598948051</v>
+        <v>0.04284758470184129</v>
       </c>
     </row>
     <row r="3">
@@ -830,34 +830,34 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.05578117568620087</v>
+        <v>0.01763955657304006</v>
       </c>
       <c r="C3">
-        <v>0.06082561652235866</v>
+        <v>0.01923474882946235</v>
       </c>
       <c r="D3">
-        <v>0.0595321000318762</v>
+        <v>0.01882570299937114</v>
       </c>
       <c r="E3">
-        <v>0.05929727673717619</v>
+        <v>0.01875144535347944</v>
       </c>
       <c r="F3">
-        <v>0.05389417310949739</v>
+        <v>0.0170428339637411</v>
       </c>
       <c r="G3">
-        <v>0.06152289819206364</v>
+        <v>0.01945524865415764</v>
       </c>
       <c r="H3">
-        <v>0.06639397377289813</v>
+        <v>0.0209956180031841</v>
       </c>
       <c r="I3">
-        <v>0.06776269377136573</v>
+        <v>0.02142844527060208</v>
       </c>
       <c r="J3">
-        <v>0.1948505565330752</v>
+        <v>0.06161715619959195</v>
       </c>
       <c r="K3">
-        <v>0.1044434298647292</v>
+        <v>0.0330279125012596</v>
       </c>
     </row>
     <row r="4">
@@ -867,34 +867,34 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1464973252188614</v>
+        <v>0.04632652188140272</v>
       </c>
       <c r="C4">
-        <v>0.1615389068074104</v>
+        <v>0.05108308762450956</v>
       </c>
       <c r="D4">
-        <v>0.1479197131257564</v>
+        <v>0.04677632043160949</v>
       </c>
       <c r="E4">
-        <v>0.1478315214537603</v>
+        <v>0.04674843177619286</v>
       </c>
       <c r="F4">
-        <v>0.1873775084420478</v>
+        <v>0.05925397089642995</v>
       </c>
       <c r="G4">
-        <v>0.1670428843447085</v>
+        <v>0.05282359814533619</v>
       </c>
       <c r="H4">
-        <v>0.170823911547159</v>
+        <v>0.054019263930816</v>
       </c>
       <c r="I4">
-        <v>0.1822645206679572</v>
+        <v>0.05763710219495788</v>
       </c>
       <c r="J4">
-        <v>2.326049743419896</v>
+        <v>0.7355615140057128</v>
       </c>
       <c r="K4">
-        <v>0.1816736739135932</v>
+        <v>0.05745026004576706</v>
       </c>
     </row>
     <row r="5">
@@ -904,34 +904,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.1384993373883085</v>
+        <v>0.04379733605711711</v>
       </c>
       <c r="C5">
-        <v>0.2084351930280353</v>
+        <v>0.06591299545054399</v>
       </c>
       <c r="D5">
-        <v>0.2125723216400811</v>
+        <v>0.06722127038925559</v>
       </c>
       <c r="E5">
-        <v>0.1696254966807781</v>
+        <v>0.05364029187485901</v>
       </c>
       <c r="F5">
-        <v>0.1466068942905586</v>
+        <v>0.04636117066417007</v>
       </c>
       <c r="G5">
-        <v>0.1673398826381419</v>
+        <v>0.05291751725217944</v>
       </c>
       <c r="H5">
-        <v>0.2375100477537297</v>
+        <v>0.07510727180771444</v>
       </c>
       <c r="I5">
-        <v>0.203477754656054</v>
+        <v>0.06434531578900621</v>
       </c>
       <c r="J5">
-        <v>1.514098978075858</v>
+        <v>0.4788001373653057</v>
       </c>
       <c r="K5">
-        <v>0.2414720820641758</v>
+        <v>0.07636017706658886</v>
       </c>
     </row>
     <row r="6">
@@ -941,34 +941,34 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.2284173648345299</v>
+        <v>0.07223191300107643</v>
       </c>
       <c r="C6">
-        <v>0.1707130365794277</v>
+        <v>0.05398420218746317</v>
       </c>
       <c r="D6">
-        <v>0.1650221732546574</v>
+        <v>0.05218459319156388</v>
       </c>
       <c r="E6">
-        <v>0.172259019770837</v>
+        <v>0.0544730849983821</v>
       </c>
       <c r="F6">
-        <v>0.2207492976121284</v>
+        <v>0.06980705723366945</v>
       </c>
       <c r="G6">
-        <v>0.1784035128127282</v>
+        <v>0.05641614430632537</v>
       </c>
       <c r="H6">
-        <v>0.2226152530212337</v>
+        <v>0.07039712414417787</v>
       </c>
       <c r="I6">
-        <v>0.210812175610308</v>
+        <v>0.06666466334239703</v>
       </c>
       <c r="J6">
-        <v>0.7988204064078467</v>
+        <v>0.2526091925670159</v>
       </c>
       <c r="K6">
-        <v>0.2342539213470135</v>
+        <v>0.07407759422825012</v>
       </c>
     </row>
     <row r="7">
@@ -978,34 +978,34 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1957168790310759</v>
+        <v>0.06189111142778484</v>
       </c>
       <c r="C7">
-        <v>0.244569411366537</v>
+        <v>0.07733963859249303</v>
       </c>
       <c r="D7">
-        <v>0.2200379702386514</v>
+        <v>0.0695821157674482</v>
       </c>
       <c r="E7">
-        <v>0.169668800027048</v>
+        <v>0.05365398559531099</v>
       </c>
       <c r="F7">
-        <v>0.3617329992495445</v>
+        <v>0.114390018247254</v>
       </c>
       <c r="G7">
-        <v>0.2351328273747465</v>
+        <v>0.07435552871793888</v>
       </c>
       <c r="H7">
-        <v>0.2130922561757222</v>
+        <v>0.06738568812593636</v>
       </c>
       <c r="I7">
-        <v>0.4351271457017004</v>
+        <v>0.1375992852185318</v>
       </c>
       <c r="J7">
-        <v>5.877018599678118</v>
+        <v>1.858476462615616</v>
       </c>
       <c r="K7">
-        <v>0.2218193221158017</v>
+        <v>0.07014542869204933</v>
       </c>
     </row>
     <row r="8">
@@ -1015,34 +1015,34 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1197049253488062</v>
+        <v>0.03785402112426533</v>
       </c>
       <c r="C8">
-        <v>0.1121199260023976</v>
+        <v>0.03545543372571137</v>
       </c>
       <c r="D8">
-        <v>0.1167938521126975</v>
+        <v>0.03693345893809927</v>
       </c>
       <c r="E8">
-        <v>0.1122635792475236</v>
+        <v>0.03550086087049864</v>
       </c>
       <c r="F8">
-        <v>0.1219268159570195</v>
+        <v>0.03855664462763443</v>
       </c>
       <c r="G8">
-        <v>0.1366959175285544</v>
+        <v>0.04322704462367667</v>
       </c>
       <c r="H8">
-        <v>0.1685348909126141</v>
+        <v>0.05329541204918743</v>
       </c>
       <c r="I8">
-        <v>0.1153792037558442</v>
+        <v>0.03648610784851215</v>
       </c>
       <c r="J8">
-        <v>5.229133723842783</v>
+        <v>1.653597275694112</v>
       </c>
       <c r="K8">
-        <v>0.2051805918567242</v>
+        <v>0.06488380019286448</v>
       </c>
     </row>
     <row r="9">
@@ -1052,34 +1052,34 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.112772350963678</v>
+        <v>0.03566174861371069</v>
       </c>
       <c r="C9">
-        <v>0.1224268398637672</v>
+        <v>0.03871476607062027</v>
       </c>
       <c r="D9">
-        <v>0.13252295359323</v>
+        <v>0.04190743756074021</v>
       </c>
       <c r="E9">
-        <v>0.1120847557010875</v>
+        <v>0.03544431189989793</v>
       </c>
       <c r="F9">
-        <v>0.1420440547929024</v>
+        <v>0.04491827412313283</v>
       </c>
       <c r="G9">
-        <v>0.1173998147843853</v>
+        <v>0.03712508116005669</v>
       </c>
       <c r="H9">
-        <v>0.1543517475037897</v>
+        <v>0.04881030829391844</v>
       </c>
       <c r="I9">
-        <v>0.1313118279581375</v>
+        <v>0.04152444600678919</v>
       </c>
       <c r="J9">
-        <v>2.413756543060683</v>
+        <v>0.7632968393206053</v>
       </c>
       <c r="K9">
-        <v>0.2609261953569822</v>
+        <v>0.08251210785301152</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>PROBE.1</t>
+          <t>PROBE_one</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>PROBE.1</t>
+          <t>PROBE_one</t>
         </is>
       </c>
     </row>
@@ -1525,34 +1525,34 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.01770227181787445</v>
+        <v>0.005597949870389266</v>
       </c>
       <c r="C2">
-        <v>0.05140923507100156</v>
+        <v>0.0162570275591373</v>
       </c>
       <c r="D2">
-        <v>0.05079053243539655</v>
+        <v>0.0160613766068512</v>
       </c>
       <c r="E2">
-        <v>0.03592571402371324</v>
+        <v>0.01136070828827862</v>
       </c>
       <c r="F2">
-        <v>0.06830722217219472</v>
+        <v>0.02160064027032895</v>
       </c>
       <c r="G2">
-        <v>0.06786293233331731</v>
+        <v>0.02146014348711677</v>
       </c>
       <c r="H2">
-        <v>0.05015760853706502</v>
+        <v>0.01586122849642315</v>
       </c>
       <c r="I2">
-        <v>0.0594597145542465</v>
+        <v>0.01880281270148823</v>
       </c>
       <c r="J2">
-        <v>0.1290957482594996</v>
+        <v>0.04082366007437366</v>
       </c>
       <c r="K2">
-        <v>0.07088277219437078</v>
+        <v>0.02241510070010631</v>
       </c>
     </row>
     <row r="3">
@@ -1562,34 +1562,34 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.05139533698953987</v>
+        <v>0.01625263259988475</v>
       </c>
       <c r="C3">
-        <v>0.04755557721730934</v>
+        <v>0.01503839394507096</v>
       </c>
       <c r="D3">
-        <v>0.04752381110989367</v>
+        <v>0.01502834861988786</v>
       </c>
       <c r="E3">
-        <v>0.04957266085952609</v>
+        <v>0.01567625179911828</v>
       </c>
       <c r="F3">
-        <v>0.07082349816879849</v>
+        <v>0.02239635660741675</v>
       </c>
       <c r="G3">
-        <v>0.04916904037319267</v>
+        <v>0.01554861579440643</v>
       </c>
       <c r="H3">
-        <v>0.05167662479632363</v>
+        <v>0.01634158361463175</v>
       </c>
       <c r="I3">
-        <v>0.0479847622142268</v>
+        <v>0.01517411415785412</v>
       </c>
       <c r="J3">
-        <v>0.1019428888864702</v>
+        <v>0.0322371720138712</v>
       </c>
       <c r="K3">
-        <v>0.1150532615004543</v>
+        <v>0.03638303585723972</v>
       </c>
     </row>
     <row r="4">
@@ -1599,34 +1599,34 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.07226312076588037</v>
+        <v>0.02285160524519932</v>
       </c>
       <c r="C4">
-        <v>0.09849959601398983</v>
+        <v>0.03114830720106504</v>
       </c>
       <c r="D4">
-        <v>0.08572207741300479</v>
+        <v>0.02710770103863695</v>
       </c>
       <c r="E4">
-        <v>0.08818052731210818</v>
+        <v>0.02788513115809473</v>
       </c>
       <c r="F4">
-        <v>0.08409054127922469</v>
+        <v>0.02659176401187591</v>
       </c>
       <c r="G4">
-        <v>0.08072451105020428</v>
+        <v>0.02552733179220765</v>
       </c>
       <c r="H4">
-        <v>0.08641125090309391</v>
+        <v>0.02732563683180586</v>
       </c>
       <c r="I4">
-        <v>0.09170284445280245</v>
+        <v>0.0289989856386993</v>
       </c>
       <c r="J4">
-        <v>0.6148110274377768</v>
+        <v>0.194420317729165</v>
       </c>
       <c r="K4">
-        <v>0.1274571754115993</v>
+        <v>0.0403054978432263</v>
       </c>
     </row>
     <row r="5">
@@ -1636,34 +1636,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.05997349217646916</v>
+        <v>0.01896528345119315</v>
       </c>
       <c r="C5">
-        <v>0.07518111278156014</v>
+        <v>0.0237743553415727</v>
       </c>
       <c r="D5">
-        <v>0.05381433492857917</v>
+        <v>0.01701758691414648</v>
       </c>
       <c r="E5">
-        <v>0.05235232731608629</v>
+        <v>0.01655525951294825</v>
       </c>
       <c r="F5">
-        <v>0.07565525145880297</v>
+        <v>0.02392429115625938</v>
       </c>
       <c r="G5">
-        <v>0.07259445859571201</v>
+        <v>0.02295638346692384</v>
       </c>
       <c r="H5">
-        <v>0.05453645421190011</v>
+        <v>0.01724594108190874</v>
       </c>
       <c r="I5">
-        <v>0.07939808792940399</v>
+        <v>0.02510787997192389</v>
       </c>
       <c r="J5">
-        <v>0.4547398675686842</v>
+        <v>0.1438013724400377</v>
       </c>
       <c r="K5">
-        <v>0.04182110627778357</v>
+        <v>0.01322499501057625</v>
       </c>
     </row>
     <row r="6">
@@ -1673,34 +1673,34 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.1106922398240327</v>
+        <v>0.03500395971495393</v>
       </c>
       <c r="C6">
-        <v>0.09580660896302494</v>
+        <v>0.03029670992202614</v>
       </c>
       <c r="D6">
-        <v>0.08141021298586944</v>
+        <v>0.02574416978347646</v>
       </c>
       <c r="E6">
-        <v>0.112086819719812</v>
+        <v>0.03544496459992821</v>
       </c>
       <c r="F6">
-        <v>0.1510596437506714</v>
+        <v>0.0477692536785742</v>
       </c>
       <c r="G6">
-        <v>0.06980171865886196</v>
+        <v>0.02207324155562775</v>
       </c>
       <c r="H6">
-        <v>0.1215007633569061</v>
+        <v>0.03842191496569491</v>
       </c>
       <c r="I6">
-        <v>0.1128870095385516</v>
+        <v>0.03569800683869763</v>
       </c>
       <c r="J6">
-        <v>0.2767475326512301</v>
+        <v>0.0875152540009704</v>
       </c>
       <c r="K6">
-        <v>0.1438641352402056</v>
+        <v>0.04549383409695446</v>
       </c>
     </row>
     <row r="7">
@@ -1710,34 +1710,34 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1162538077492734</v>
+        <v>0.03676268191550369</v>
       </c>
       <c r="C7">
-        <v>0.1240647986997428</v>
+        <v>0.03923273413414837</v>
       </c>
       <c r="D7">
-        <v>0.1038514575027536</v>
+        <v>0.03284071440368835</v>
       </c>
       <c r="E7">
-        <v>0.1138989927695095</v>
+        <v>0.03601802403506997</v>
       </c>
       <c r="F7">
-        <v>0.1723583023860088</v>
+        <v>0.05450448091798218</v>
       </c>
       <c r="G7">
-        <v>0.1493663400654076</v>
+        <v>0.04723378403699516</v>
       </c>
       <c r="H7">
-        <v>0.1094259512426178</v>
+        <v>0.03460352410572047</v>
       </c>
       <c r="I7">
-        <v>0.08300609940431163</v>
+        <v>0.02624883338039705</v>
       </c>
       <c r="J7">
-        <v>1.040296737724885</v>
+        <v>0.3289707133653447</v>
       </c>
       <c r="K7">
-        <v>0.1149838974255068</v>
+        <v>0.03636110101077726</v>
       </c>
     </row>
     <row r="8">
@@ -1747,34 +1747,34 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.09987237565529355</v>
+        <v>0.03158241824026791</v>
       </c>
       <c r="C8">
-        <v>0.09998169106559034</v>
+        <v>0.03161698680825727</v>
       </c>
       <c r="D8">
-        <v>0.1134901665330545</v>
+        <v>0.03588874182762673</v>
       </c>
       <c r="E8">
-        <v>0.1054464718087743</v>
+        <v>0.03334510221444616</v>
       </c>
       <c r="F8">
-        <v>0.07259861578562893</v>
+        <v>0.02295769808580418</v>
       </c>
       <c r="G8">
-        <v>0.09378051807635183</v>
+        <v>0.02965600372718643</v>
       </c>
       <c r="H8">
-        <v>0.09978504190628035</v>
+        <v>0.03155480088391958</v>
       </c>
       <c r="I8">
-        <v>0.1221170517403466</v>
+        <v>0.03861680246441242</v>
       </c>
       <c r="J8">
-        <v>1.05412608881583</v>
+        <v>0.3333439381662969</v>
       </c>
       <c r="K8">
-        <v>0.07657181043909216</v>
+        <v>0.0242141325550189</v>
       </c>
     </row>
     <row r="9">
@@ -1784,34 +1784,34 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.04233947212616764</v>
+        <v>0.01338891668479017</v>
       </c>
       <c r="C9">
-        <v>0.0410194136507042</v>
+        <v>0.01297147754208278</v>
       </c>
       <c r="D9">
-        <v>0.03975989677947284</v>
+        <v>0.01257318333563276</v>
       </c>
       <c r="E9">
-        <v>0.03545095206681687</v>
+        <v>0.0112105753752595</v>
       </c>
       <c r="F9">
-        <v>0.03606061106572792</v>
+        <v>0.0114033664785172</v>
       </c>
       <c r="G9">
-        <v>0.0414092891986046</v>
+        <v>0.01309476701561991</v>
       </c>
       <c r="H9">
-        <v>0.03429187819311066</v>
+        <v>0.01084404403352891</v>
       </c>
       <c r="I9">
-        <v>0.05925148325703298</v>
+        <v>0.01873696418355561</v>
       </c>
       <c r="J9">
-        <v>0.7833404257086836</v>
+        <v>0.2477139928525358</v>
       </c>
       <c r="K9">
-        <v>0.09560735749168556</v>
+        <v>0.03023370107436892</v>
       </c>
     </row>
   </sheetData>
